--- a/data/trans_bre/P38_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>-11,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 7,13</t>
+          <t>-9,75; 7,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 15,27</t>
+          <t>-12,26; 5,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 23,2</t>
+          <t>0,04; 23,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 38,21</t>
+          <t>-37,11; 50,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 40,52</t>
+          <t>-40,2; 31,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 89,3</t>
+          <t>-0,17; 105,32</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 11,05</t>
+          <t>-8,83; 6,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 18,99</t>
+          <t>-5,72; 10,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 19,13</t>
+          <t>-11,18; 15,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 110,55</t>
+          <t>-49,4; 73,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 79,6</t>
+          <t>-37,13; 143,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 120,57</t>
+          <t>-36,25; 77,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>115,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>70,04%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 17,23</t>
+          <t>-10,28; 23,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 37,58</t>
+          <t>-4,56; 30,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 27,9</t>
+          <t>-9,9; 37,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 225,82</t>
+          <t>-58,9; 772,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 183,93</t>
+          <t>-29,69; 1001,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 230,13</t>
+          <t>-33,02; 389,35</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>27,61%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,93</t>
+          <t>-5,69; 5,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 15,83</t>
+          <t>-5,04; 6,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 19,02</t>
+          <t>-0,48; 16,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 44,62</t>
+          <t>-28,39; 41,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 47,76</t>
+          <t>-23,63; 44,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 84,75</t>
+          <t>-1,97; 68,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,59</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,37%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,53%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>38,31%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.712212065399934</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.413477916756301</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.60368401170372</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1637292809332608</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1714586529402645</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3765839633122952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,75; 7,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,26; 5,83</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 23,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-37,11; 50,55</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-40,2; 31,26</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 105,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.74499233884207</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.90975056050398</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.07769547368082103</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4445007131327647</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4471757864073046</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.006690755456205431</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.452929299771112</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.634984805447093</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>23.86421775500769</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3755069367009957</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2290971525046119</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.06886800268269</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-7,68%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,18%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 6,94</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 10,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; 15,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-49,4; 73,31</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-37,13; 143,48</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-36,25; 77,76</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2807030120271656</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.492398032689956</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3400764288275016</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.02321061645640884</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3152937931275665</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.01316922187785977</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,56</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>57,79%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>115,08%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>70,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.163118924612238</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.34372691132866</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.94486113264003</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4407798926261404</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3309695679749404</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3633711859209612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 23,94</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 30,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; 37,83</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-58,9; 772,27</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-29,69; 1001,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-33,02; 389,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.019077606120554</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.76024624968873</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.27292747756681</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.033929602375359</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.698010609272733</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7119020138145981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,26%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>27,61%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.297735603519862</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.88166319120584</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>16.90415622654233</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5357432609485379</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.227134474332473</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.8625021656283999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 5,74</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 6,43</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 16,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-28,39; 41,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; 44,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 68,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.10913956642924</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.137742539927598</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.672116481849975</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6066390741726173</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2612878069948031</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2508909511195881</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>23.95884616715508</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>31.98990030642001</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>39.5849623637689</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>6.787186217587918</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>9.799257528283038</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.38606637572808</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.8612118935614366</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9955821538504384</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.944405877177174</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.05038409626087467</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.05519243285968034</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2888780863811089</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.594820417723763</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.992695786583858</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.007728451785825056</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3140563104178196</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2401655808458493</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.008471861405803612</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.774296919241429</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.692701080045635</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.5842883096801</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3456849654303167</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4591483156304905</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.697577431578801</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +938,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
